--- a/CashFlow/COUP_cashflow.xlsx
+++ b/CashFlow/COUP_cashflow.xlsx
@@ -517,19 +517,19 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
-        <v>-851000.0</v>
+        <v>12000000.0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>-1029000.0</v>
+        <v>11000000.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>9621000.0</v>
+        <v>19956000.0</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>9935000.0</v>
+        <v>17414000.0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>7301000.0</v>
+        <v>10895000.0</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>11932000.0</v>
